--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/硬件及软件库.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/硬件及软件库.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kingshuo\个人项目\财务软件 --舜宇\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kingshuo\suiyu\finance_back444444\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5CAADE-4A38-41D8-BA1C-A4DE635F8D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21790738-5D63-4C0E-A750-50B43A223EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="43440" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>工序编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>软件单价</t>
+  </si>
+  <si>
+    <t>追溯软件费用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>追溯软件</t>
+  </si>
+  <si>
+    <t>硬件1名称1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件2名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -88,7 +115,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +152,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +187,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,13 +217,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +250,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -491,15 +556,15 @@
     <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="18.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="2"/>
+    <col min="10" max="12" width="18.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,21 +595,66 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
         <v>1</v>
       </c>
     </row>
